--- a/data/trans_orig/P21D_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>9219</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4943</v>
+        <v>4037</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17220</v>
+        <v>15797</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03199637339548784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01715754141106295</v>
+        <v>0.01401086087964367</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05976787438466943</v>
+        <v>0.05482820291164248</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,16 +765,16 @@
         <v>4676</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14365</v>
+        <v>14621</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02670818875196708</v>
+        <v>0.02670818875196707</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01445501620120994</v>
+        <v>0.01445511878694161</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04440217860898084</v>
+        <v>0.04519538213399126</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -783,19 +783,19 @@
         <v>17859</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11910</v>
+        <v>11361</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26672</v>
+        <v>26422</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02919930614238417</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01947275365957232</v>
+        <v>0.01857422712538031</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04360871551889227</v>
+        <v>0.04319842365994146</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>278904</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>270903</v>
+        <v>272326</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283180</v>
+        <v>284086</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9680036266045123</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9402321256153312</v>
+        <v>0.9451717970883575</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9828424585889374</v>
+        <v>0.9859891391203562</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>502</v>
@@ -833,19 +833,19 @@
         <v>314869</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309144</v>
+        <v>308888</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>318833</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9732918112480329</v>
+        <v>0.9732918112480331</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9555978213910191</v>
+        <v>0.9548046178660086</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9855449837987901</v>
+        <v>0.9855448812130582</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>785</v>
@@ -854,19 +854,19 @@
         <v>593773</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>584960</v>
+        <v>585210</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>599722</v>
+        <v>600271</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9708006938576157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9563912844811077</v>
+        <v>0.9568015763400577</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9805272463404276</v>
+        <v>0.9814257728746194</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>4925</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1351</v>
+        <v>1759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11458</v>
+        <v>12269</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01047500166125385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002872690224016063</v>
+        <v>0.003741819656248607</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02436751073534438</v>
+        <v>0.02609238595178271</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -979,19 +979,19 @@
         <v>10474</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5829</v>
+        <v>5871</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20195</v>
+        <v>19487</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02080692889406983</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01157877549409178</v>
+        <v>0.01166215522518963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04011784837463022</v>
+        <v>0.03871144269037478</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -1000,19 +1000,19 @@
         <v>15399</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9058</v>
+        <v>9486</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24106</v>
+        <v>26465</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0158170495587399</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00930374731894924</v>
+        <v>0.009743450237694221</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02475931946581236</v>
+        <v>0.02718233346595684</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>465283</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458750</v>
+        <v>457939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>468857</v>
+        <v>468449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9895249983387462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9756324892646557</v>
+        <v>0.9739076140482166</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.997127309775984</v>
+        <v>0.9962581803437511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>692</v>
@@ -1050,19 +1050,19 @@
         <v>492920</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>483199</v>
+        <v>483907</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>497565</v>
+        <v>497523</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9791930711059303</v>
+        <v>0.97919307110593</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9598821516253696</v>
+        <v>0.9612885573096253</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9884212245059083</v>
+        <v>0.9883378447748103</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1113</v>
@@ -1071,19 +1071,19 @@
         <v>958202</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>949495</v>
+        <v>947136</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>964543</v>
+        <v>964115</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.98418295044126</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9752406805341874</v>
+        <v>0.972817666534043</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9906962526810505</v>
+        <v>0.9902565497623056</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>15640</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8278</v>
+        <v>9016</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25492</v>
+        <v>26250</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04153104133466624</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02198196167023811</v>
+        <v>0.02394212497135611</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06769354614233478</v>
+        <v>0.06970454043870151</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1196,19 +1196,19 @@
         <v>9239</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5041</v>
+        <v>4956</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16911</v>
+        <v>17200</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02440051468692702</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01331364411301717</v>
+        <v>0.01308947591732967</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0446607097231916</v>
+        <v>0.04542447939330325</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1217,19 +1217,19 @@
         <v>24879</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16629</v>
+        <v>16534</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37568</v>
+        <v>37434</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03294235555554888</v>
+        <v>0.03294235555554887</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02201800219137184</v>
+        <v>0.02189307517623916</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04974401285991198</v>
+        <v>0.04956556787383794</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>360944</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>351092</v>
+        <v>350334</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>368306</v>
+        <v>367568</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9584689586653338</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9323064538576652</v>
+        <v>0.9302954595612981</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.978018038329762</v>
+        <v>0.9760578750286429</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>476</v>
@@ -1267,19 +1267,19 @@
         <v>369410</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>361738</v>
+        <v>361449</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>373608</v>
+        <v>373693</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9755994853130729</v>
+        <v>0.9755994853130728</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9553392902768081</v>
+        <v>0.9545755206066968</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9866863558869828</v>
+        <v>0.9869105240826703</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>776</v>
@@ -1288,19 +1288,19 @@
         <v>730353</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>717664</v>
+        <v>717798</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>738603</v>
+        <v>738698</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9670576444444512</v>
+        <v>0.9670576444444511</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.950255987140088</v>
+        <v>0.950434432126162</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9779819978086283</v>
+        <v>0.9781069248237607</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>3757</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>911</v>
+        <v>937</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8843</v>
+        <v>9396</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008669632000757066</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002101947404080634</v>
+        <v>0.002162149193808453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02040511734755998</v>
+        <v>0.02168247082315709</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1413,19 +1413,19 @@
         <v>12201</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7213</v>
+        <v>7454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19589</v>
+        <v>19689</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02494839410318431</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01474906533187615</v>
+        <v>0.01524069877396784</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04005352424226046</v>
+        <v>0.0402592267739711</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1434,19 +1434,19 @@
         <v>15958</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9998</v>
+        <v>10145</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23563</v>
+        <v>24304</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01730051100825046</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01083914004150429</v>
+        <v>0.01099803127678273</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02554512537015489</v>
+        <v>0.02634804472158819</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>429602</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>424516</v>
+        <v>423963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>432448</v>
+        <v>432422</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9913303679992429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9795948826524399</v>
+        <v>0.9783175291768428</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9978980525959193</v>
+        <v>0.9978378508061917</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>648</v>
@@ -1484,19 +1484,19 @@
         <v>476859</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>469471</v>
+        <v>469371</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>481847</v>
+        <v>481606</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9750516058968157</v>
+        <v>0.9750516058968158</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9599464757577394</v>
+        <v>0.9597407732260288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9852509346681239</v>
+        <v>0.9847593012260321</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1070</v>
@@ -1505,19 +1505,19 @@
         <v>906461</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>898856</v>
+        <v>898115</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>912421</v>
+        <v>912274</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9826994889917495</v>
+        <v>0.9826994889917496</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9744548746298451</v>
+        <v>0.973651955278411</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9891608599584957</v>
+        <v>0.9890019687232172</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>33541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22911</v>
+        <v>23925</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47986</v>
+        <v>47379</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02138739743200314</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01460916990036885</v>
+        <v>0.01525562204858178</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03059811407277426</v>
+        <v>0.03021109082032805</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -1630,19 +1630,19 @@
         <v>40555</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30554</v>
+        <v>30516</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53748</v>
+        <v>54238</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02393168275672912</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01802994238425104</v>
+        <v>0.01800778550526659</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0317171778097487</v>
+        <v>0.03200643812850464</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -1651,19 +1651,19 @@
         <v>74096</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59943</v>
+        <v>58066</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>92723</v>
+        <v>92806</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02270879692959297</v>
+        <v>0.02270879692959296</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01837119975296615</v>
+        <v>0.01779602793129704</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02841750501098507</v>
+        <v>0.02844298010347283</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1534733</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1520288</v>
+        <v>1520895</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1545363</v>
+        <v>1544349</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9786126025679969</v>
+        <v>0.978612602567997</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9694018859272256</v>
+        <v>0.9697889091796719</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9853908300996311</v>
+        <v>0.9847443779514182</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2318</v>
@@ -1701,19 +1701,19 @@
         <v>1654056</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1640863</v>
+        <v>1640373</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1664057</v>
+        <v>1664095</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.976068317243271</v>
+        <v>0.9760683172432709</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.968282822190252</v>
+        <v>0.9679935618714953</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.981970057615749</v>
+        <v>0.9819922144947333</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3744</v>
@@ -1722,19 +1722,19 @@
         <v>3188789</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3170162</v>
+        <v>3170079</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3202942</v>
+        <v>3204819</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9772912030704072</v>
+        <v>0.977291203070407</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9715824949890151</v>
+        <v>0.9715570198965272</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.981628800247034</v>
+        <v>0.9822039720687028</v>
       </c>
     </row>
     <row r="18">
